--- a/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510591FB-10DC-4D99-84B9-31D0CAE2B970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B543CA62-51CB-4419-B3AF-6001140F5ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="585" windowWidth="24735" windowHeight="16515" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -358,6 +358,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -377,6 +378,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -674,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -793,7 +795,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -801,6 +802,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -815,53 +822,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -869,16 +831,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -887,8 +876,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,681 +1183,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="47"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="48">
+      <c r="B4" s="49">
         <v>44359</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="49" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="44" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="47"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="47"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="47"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="47"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="46"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="47"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="46"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="47"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="2"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="46"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="47"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="2"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="46"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="47"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="46"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="47"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="2"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="46"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="47"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="46"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="47"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="47"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="46"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="47"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="47"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="46"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="47"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="2"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="46"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="47"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="2"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="46"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="2"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="46"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="47"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="46"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="47"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="46"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="47"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="2"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="46"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27">
@@ -1919,12 +1920,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1934,60 +1983,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3613,9 +3614,7 @@
   </sheetPr>
   <dimension ref="A1:BP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:BO12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4055,72 +4054,72 @@
       <c r="C7" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="54" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="45"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="45"/>
-      <c r="AX7" s="45"/>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="45"/>
-      <c r="BE7" s="45"/>
-      <c r="BF7" s="45"/>
-      <c r="BG7" s="45"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="45"/>
-      <c r="BL7" s="45"/>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="46"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="46"/>
+      <c r="BG7" s="46"/>
+      <c r="BH7" s="46"/>
+      <c r="BI7" s="46"/>
+      <c r="BJ7" s="46"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="46"/>
+      <c r="BM7" s="46"/>
+      <c r="BN7" s="46"/>
+      <c r="BO7" s="47"/>
       <c r="BP7" s="2"/>
     </row>
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4129,72 +4128,72 @@
       <c r="C8" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="54" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="45"/>
-      <c r="BL8" s="45"/>
-      <c r="BM8" s="45"/>
-      <c r="BN8" s="45"/>
-      <c r="BO8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="46"/>
+      <c r="BE8" s="46"/>
+      <c r="BF8" s="46"/>
+      <c r="BG8" s="46"/>
+      <c r="BH8" s="46"/>
+      <c r="BI8" s="46"/>
+      <c r="BJ8" s="46"/>
+      <c r="BK8" s="46"/>
+      <c r="BL8" s="46"/>
+      <c r="BM8" s="46"/>
+      <c r="BN8" s="46"/>
+      <c r="BO8" s="47"/>
       <c r="BP8" s="2"/>
     </row>
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4203,147 +4202,147 @@
       <c r="C9" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="54" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45"/>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="45"/>
-      <c r="BL9" s="45"/>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45"/>
-      <c r="BO9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="46"/>
+      <c r="BK9" s="46"/>
+      <c r="BL9" s="46"/>
+      <c r="BM9" s="46"/>
+      <c r="BN9" s="46"/>
+      <c r="BO9" s="47"/>
       <c r="BP9" s="2"/>
     </row>
-    <row r="10" spans="1:68" s="43" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+    <row r="10" spans="1:68" s="42" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="67"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="67"/>
-      <c r="AR10" s="67"/>
-      <c r="AS10" s="67"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="67"/>
-      <c r="AV10" s="67"/>
-      <c r="AW10" s="67"/>
-      <c r="AX10" s="67"/>
-      <c r="AY10" s="67"/>
-      <c r="AZ10" s="67"/>
-      <c r="BA10" s="67"/>
-      <c r="BB10" s="67"/>
-      <c r="BC10" s="67"/>
-      <c r="BD10" s="67"/>
-      <c r="BE10" s="67"/>
-      <c r="BF10" s="67"/>
-      <c r="BG10" s="67"/>
-      <c r="BH10" s="67"/>
-      <c r="BI10" s="67"/>
-      <c r="BJ10" s="67"/>
-      <c r="BK10" s="67"/>
-      <c r="BL10" s="67"/>
-      <c r="BM10" s="67"/>
-      <c r="BN10" s="67"/>
-      <c r="BO10" s="67"/>
-      <c r="BP10" s="41"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="69"/>
+      <c r="BE10" s="69"/>
+      <c r="BF10" s="69"/>
+      <c r="BG10" s="69"/>
+      <c r="BH10" s="69"/>
+      <c r="BI10" s="69"/>
+      <c r="BJ10" s="69"/>
+      <c r="BK10" s="69"/>
+      <c r="BL10" s="69"/>
+      <c r="BM10" s="69"/>
+      <c r="BN10" s="69"/>
+      <c r="BO10" s="69"/>
+      <c r="BP10" s="40"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A11" s="2"/>
@@ -4421,157 +4420,157 @@
       <c r="A12" s="2"/>
       <c r="B12" s="15"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="64" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="45"/>
-      <c r="BF12" s="45"/>
-      <c r="BG12" s="45"/>
-      <c r="BH12" s="45"/>
-      <c r="BI12" s="45"/>
-      <c r="BJ12" s="45"/>
-      <c r="BK12" s="45"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="45"/>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="46"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="46"/>
+      <c r="BN12" s="46"/>
+      <c r="BO12" s="47"/>
       <c r="BP12" s="2"/>
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="15"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="64" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="45"/>
-      <c r="BB13" s="45"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="45"/>
-      <c r="BE13" s="45"/>
-      <c r="BF13" s="45"/>
-      <c r="BG13" s="45"/>
-      <c r="BH13" s="45"/>
-      <c r="BI13" s="45"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="45"/>
-      <c r="BL13" s="45"/>
-      <c r="BM13" s="45"/>
-      <c r="BN13" s="45"/>
-      <c r="BO13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="46"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="46"/>
+      <c r="BI13" s="46"/>
+      <c r="BJ13" s="46"/>
+      <c r="BK13" s="46"/>
+      <c r="BL13" s="46"/>
+      <c r="BM13" s="46"/>
+      <c r="BN13" s="46"/>
+      <c r="BO13" s="47"/>
       <c r="BP13" s="2"/>
     </row>
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -4640,162 +4639,162 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="47" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="47" t="s">
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="47"/>
       <c r="AE15" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="47"/>
       <c r="AH15" s="25" t="s">
         <v>34</v>
       </c>
       <c r="AI15" s="25"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="47" t="s">
+      <c r="AK15" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="45"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="45"/>
-      <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="45"/>
-      <c r="AZ15" s="45"/>
-      <c r="BA15" s="45"/>
-      <c r="BB15" s="45"/>
-      <c r="BC15" s="45"/>
-      <c r="BD15" s="45"/>
-      <c r="BE15" s="45"/>
-      <c r="BF15" s="45"/>
-      <c r="BG15" s="45"/>
-      <c r="BH15" s="45"/>
-      <c r="BI15" s="45"/>
-      <c r="BJ15" s="45"/>
-      <c r="BK15" s="45"/>
-      <c r="BL15" s="45"/>
-      <c r="BM15" s="45"/>
-      <c r="BN15" s="45"/>
-      <c r="BO15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="46"/>
+      <c r="AV15" s="46"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="46"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="46"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="46"/>
+      <c r="BL15" s="46"/>
+      <c r="BM15" s="46"/>
+      <c r="BN15" s="46"/>
+      <c r="BO15" s="47"/>
       <c r="BP15" s="2"/>
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="53"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
-      <c r="AZ16" s="45"/>
-      <c r="BA16" s="45"/>
-      <c r="BB16" s="45"/>
-      <c r="BC16" s="45"/>
-      <c r="BD16" s="45"/>
-      <c r="BE16" s="45"/>
-      <c r="BF16" s="45"/>
-      <c r="BG16" s="45"/>
-      <c r="BH16" s="45"/>
-      <c r="BI16" s="45"/>
-      <c r="BJ16" s="45"/>
-      <c r="BK16" s="45"/>
-      <c r="BL16" s="45"/>
-      <c r="BM16" s="45"/>
-      <c r="BN16" s="45"/>
-      <c r="BO16" s="46"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="46"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="46"/>
+      <c r="BC16" s="46"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="46"/>
+      <c r="BF16" s="46"/>
+      <c r="BG16" s="46"/>
+      <c r="BH16" s="46"/>
+      <c r="BI16" s="46"/>
+      <c r="BJ16" s="46"/>
+      <c r="BK16" s="46"/>
+      <c r="BL16" s="46"/>
+      <c r="BM16" s="46"/>
+      <c r="BN16" s="46"/>
+      <c r="BO16" s="47"/>
       <c r="BP16" s="2"/>
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -4864,161 +4863,161 @@
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="47" t="s">
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="47"/>
       <c r="AE18" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="47"/>
       <c r="AH18" s="25" t="s">
         <v>34</v>
       </c>
       <c r="AI18" s="25"/>
       <c r="AJ18" s="25"/>
-      <c r="AK18" s="47" t="s">
+      <c r="AK18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="45"/>
-      <c r="BB18" s="45"/>
-      <c r="BC18" s="45"/>
-      <c r="BD18" s="45"/>
-      <c r="BE18" s="45"/>
-      <c r="BF18" s="45"/>
-      <c r="BG18" s="45"/>
-      <c r="BH18" s="45"/>
-      <c r="BI18" s="45"/>
-      <c r="BJ18" s="45"/>
-      <c r="BK18" s="45"/>
-      <c r="BL18" s="45"/>
-      <c r="BM18" s="45"/>
-      <c r="BN18" s="45"/>
-      <c r="BO18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="46"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="46"/>
+      <c r="BI18" s="46"/>
+      <c r="BJ18" s="46"/>
+      <c r="BK18" s="46"/>
+      <c r="BL18" s="46"/>
+      <c r="BM18" s="46"/>
+      <c r="BN18" s="46"/>
+      <c r="BO18" s="47"/>
       <c r="BP18" s="2"/>
     </row>
     <row r="19" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="53" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="54">
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="51">
         <v>1</v>
       </c>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="69" t="s">
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="45"/>
-      <c r="BB19" s="45"/>
-      <c r="BC19" s="45"/>
-      <c r="BD19" s="45"/>
-      <c r="BE19" s="45"/>
-      <c r="BF19" s="45"/>
-      <c r="BG19" s="45"/>
-      <c r="BH19" s="45"/>
-      <c r="BI19" s="45"/>
-      <c r="BJ19" s="45"/>
-      <c r="BK19" s="45"/>
-      <c r="BL19" s="45"/>
-      <c r="BM19" s="45"/>
-      <c r="BN19" s="45"/>
-      <c r="BO19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="46"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="46"/>
+      <c r="AY19" s="46"/>
+      <c r="AZ19" s="46"/>
+      <c r="BA19" s="46"/>
+      <c r="BB19" s="46"/>
+      <c r="BC19" s="46"/>
+      <c r="BD19" s="46"/>
+      <c r="BE19" s="46"/>
+      <c r="BF19" s="46"/>
+      <c r="BG19" s="46"/>
+      <c r="BH19" s="46"/>
+      <c r="BI19" s="46"/>
+      <c r="BJ19" s="46"/>
+      <c r="BK19" s="46"/>
+      <c r="BL19" s="46"/>
+      <c r="BM19" s="46"/>
+      <c r="BN19" s="46"/>
+      <c r="BO19" s="47"/>
       <c r="BP19" s="2"/>
     </row>
     <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5040,133 +5039,133 @@
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
       <c r="P20" s="30"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="53" t="s">
+      <c r="Q20" s="62"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="53" t="s">
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
-      <c r="BD20" s="45"/>
-      <c r="BE20" s="45"/>
-      <c r="BF20" s="45"/>
-      <c r="BG20" s="45"/>
-      <c r="BH20" s="45"/>
-      <c r="BI20" s="45"/>
-      <c r="BJ20" s="45"/>
-      <c r="BK20" s="45"/>
-      <c r="BL20" s="45"/>
-      <c r="BM20" s="45"/>
-      <c r="BN20" s="45"/>
-      <c r="BO20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="46"/>
+      <c r="BA20" s="46"/>
+      <c r="BB20" s="46"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="46"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="46"/>
+      <c r="BI20" s="46"/>
+      <c r="BJ20" s="46"/>
+      <c r="BK20" s="46"/>
+      <c r="BL20" s="46"/>
+      <c r="BM20" s="46"/>
+      <c r="BN20" s="46"/>
+      <c r="BO20" s="47"/>
       <c r="BP20" s="2"/>
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="54" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="45"/>
-      <c r="BA21" s="45"/>
-      <c r="BB21" s="45"/>
-      <c r="BC21" s="45"/>
-      <c r="BD21" s="45"/>
-      <c r="BE21" s="45"/>
-      <c r="BF21" s="45"/>
-      <c r="BG21" s="45"/>
-      <c r="BH21" s="45"/>
-      <c r="BI21" s="45"/>
-      <c r="BJ21" s="45"/>
-      <c r="BK21" s="45"/>
-      <c r="BL21" s="45"/>
-      <c r="BM21" s="45"/>
-      <c r="BN21" s="45"/>
-      <c r="BO21" s="46"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="46"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="46"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="46"/>
+      <c r="BL21" s="46"/>
+      <c r="BM21" s="46"/>
+      <c r="BN21" s="46"/>
+      <c r="BO21" s="47"/>
       <c r="BP21" s="2"/>
     </row>
     <row r="22" spans="1:68" ht="16.5">
@@ -5383,87 +5382,87 @@
     </row>
     <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
       <c r="K25" s="58"/>
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
       <c r="AB25" s="58"/>
-      <c r="AC25" s="57" t="s">
+      <c r="AC25" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
       <c r="AK25" s="58"/>
-      <c r="AL25" s="55" t="s">
+      <c r="AL25" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="45"/>
-      <c r="BE25" s="45"/>
-      <c r="BF25" s="45"/>
-      <c r="BG25" s="45"/>
-      <c r="BH25" s="45"/>
-      <c r="BI25" s="45"/>
-      <c r="BJ25" s="45"/>
-      <c r="BK25" s="45"/>
-      <c r="BL25" s="45"/>
-      <c r="BM25" s="45"/>
-      <c r="BN25" s="45"/>
-      <c r="BO25" s="46"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="46"/>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="46"/>
+      <c r="AQ25" s="46"/>
+      <c r="AR25" s="46"/>
+      <c r="AS25" s="46"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="46"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
+      <c r="BB25" s="46"/>
+      <c r="BC25" s="46"/>
+      <c r="BD25" s="46"/>
+      <c r="BE25" s="46"/>
+      <c r="BF25" s="46"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="46"/>
+      <c r="BI25" s="46"/>
+      <c r="BJ25" s="46"/>
+      <c r="BK25" s="46"/>
+      <c r="BL25" s="46"/>
+      <c r="BM25" s="46"/>
+      <c r="BN25" s="46"/>
+      <c r="BO25" s="47"/>
       <c r="BP25" s="2"/>
     </row>
     <row r="26" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="61"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="59"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -5472,7 +5471,7 @@
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
       <c r="J26" s="60"/>
-      <c r="K26" s="61"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="59"/>
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
@@ -5489,7 +5488,7 @@
       <c r="Y26" s="60"/>
       <c r="Z26" s="60"/>
       <c r="AA26" s="60"/>
-      <c r="AB26" s="61"/>
+      <c r="AB26" s="55"/>
       <c r="AC26" s="59"/>
       <c r="AD26" s="60"/>
       <c r="AE26" s="60"/>
@@ -5498,43 +5497,43 @@
       <c r="AH26" s="60"/>
       <c r="AI26" s="60"/>
       <c r="AJ26" s="60"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="56" t="s">
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="46"/>
-      <c r="AU26" s="56" t="s">
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="46"/>
-      <c r="AZ26" s="56" t="s">
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46"/>
+      <c r="AX26" s="46"/>
+      <c r="AY26" s="47"/>
+      <c r="AZ26" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="BA26" s="45"/>
-      <c r="BB26" s="45"/>
-      <c r="BC26" s="45"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="45"/>
-      <c r="BF26" s="45"/>
-      <c r="BG26" s="45"/>
-      <c r="BH26" s="45"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="45"/>
-      <c r="BL26" s="45"/>
-      <c r="BM26" s="45"/>
-      <c r="BN26" s="45"/>
-      <c r="BO26" s="46"/>
+      <c r="BA26" s="46"/>
+      <c r="BB26" s="46"/>
+      <c r="BC26" s="46"/>
+      <c r="BD26" s="46"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="46"/>
+      <c r="BI26" s="46"/>
+      <c r="BJ26" s="46"/>
+      <c r="BK26" s="46"/>
+      <c r="BL26" s="46"/>
+      <c r="BM26" s="46"/>
+      <c r="BN26" s="46"/>
+      <c r="BO26" s="47"/>
       <c r="BP26" s="2"/>
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5543,60 +5542,60 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="54" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="70"/>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="70"/>
-      <c r="AH27" s="70"/>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="70"/>
-      <c r="AK27" s="71"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="76"/>
-      <c r="AN27" s="76"/>
-      <c r="AO27" s="76"/>
-      <c r="AP27" s="76"/>
-      <c r="AQ27" s="76"/>
-      <c r="AR27" s="76"/>
-      <c r="AS27" s="76"/>
-      <c r="AT27" s="77"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="76"/>
-      <c r="AW27" s="76"/>
-      <c r="AX27" s="76"/>
-      <c r="AY27" s="77"/>
-      <c r="AZ27" s="63"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="70"/>
+      <c r="AM27" s="71"/>
+      <c r="AN27" s="71"/>
+      <c r="AO27" s="71"/>
+      <c r="AP27" s="71"/>
+      <c r="AQ27" s="71"/>
+      <c r="AR27" s="71"/>
+      <c r="AS27" s="71"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="71"/>
+      <c r="AW27" s="71"/>
+      <c r="AX27" s="71"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="73"/>
       <c r="BA27" s="74"/>
       <c r="BB27" s="74"/>
       <c r="BC27" s="74"/>
@@ -6600,37 +6599,20 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:K26"/>
-    <mergeCell ref="L25:AB26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:AB27"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="C19:P19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="C16:P16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AZ27:BO27"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="AL25:BO25"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AZ26:BO26"/>
+    <mergeCell ref="AC25:AK26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C18:P18"/>
     <mergeCell ref="I13:BO13"/>
     <mergeCell ref="AK15:BO15"/>
     <mergeCell ref="AK16:BO16"/>
@@ -6647,20 +6629,37 @@
     <mergeCell ref="Q15:W15"/>
     <mergeCell ref="X15:AD15"/>
     <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="AL27:AT27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AZ27:BO27"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="AL25:BO25"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AZ26:BO26"/>
-    <mergeCell ref="AC25:AK26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="C19:P19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:K26"/>
+    <mergeCell ref="L25:AB26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:AB27"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B543CA62-51CB-4419-B3AF-6001140F5ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB61D3-8F92-43EE-8E66-EAA87D55AC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t>更新日時</t>
   </si>
@@ -58,9 +58,6 @@
     <t>必須</t>
   </si>
   <si>
-    <t>2.1.2.処理詳細</t>
-  </si>
-  <si>
     <t>処理概要</t>
   </si>
   <si>
@@ -82,13 +79,7 @@
     <t>エラーメッセージ</t>
   </si>
   <si>
-    <t>2.1.3.DB処理</t>
-  </si>
-  <si>
     <t>入力</t>
-  </si>
-  <si>
-    <t>2.1.4.備考</t>
   </si>
   <si>
     <t>文字コード</t>
@@ -312,10 +303,6 @@
   </si>
   <si>
     <t>2.1.1.API仕様 参照</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>2.1.1.API仕様</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -822,45 +809,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -885,11 +834,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1920,6 +1907,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1929,66 +1976,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,7 +2107,7 @@
     <row r="3" spans="1:49">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2174,7 +2161,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3835,8 +3822,9 @@
       <c r="BP3" s="2"/>
     </row>
     <row r="4" spans="1:68" ht="16.5">
-      <c r="A4" s="9" t="s">
-        <v>85</v>
+      <c r="A4" s="9" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"1.API仕様"</f>
+        <v>2.1.1.API仕様</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -3979,7 +3967,7 @@
     <row r="6" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -4051,16 +4039,16 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="65" t="s">
-        <v>23</v>
+      <c r="C7" s="51" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="47"/>
-      <c r="I7" s="51" t="s">
-        <v>74</v>
+      <c r="I7" s="71" t="s">
+        <v>71</v>
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
@@ -4125,16 +4113,16 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="65" t="s">
-        <v>20</v>
+      <c r="C8" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
-      <c r="I8" s="51" t="s">
-        <v>25</v>
+      <c r="I8" s="71" t="s">
+        <v>22</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
@@ -4199,16 +4187,16 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="65" t="s">
-        <v>26</v>
+      <c r="C9" s="51" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="47"/>
-      <c r="I9" s="51" t="s">
-        <v>27</v>
+      <c r="I9" s="71" t="s">
+        <v>24</v>
       </c>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
@@ -4273,82 +4261,82 @@
     <row r="10" spans="1:68" s="42" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
-      <c r="C10" s="65" t="s">
-        <v>75</v>
+      <c r="C10" s="51" t="s">
+        <v>72</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69" t="s">
-        <v>76</v>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53" t="s">
+        <v>73</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="69"/>
-      <c r="BG10" s="69"/>
-      <c r="BH10" s="69"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="69"/>
-      <c r="BK10" s="69"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="69"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="53"/>
+      <c r="BG10" s="53"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="53"/>
+      <c r="BJ10" s="53"/>
+      <c r="BK10" s="53"/>
+      <c r="BL10" s="53"/>
+      <c r="BM10" s="53"/>
+      <c r="BN10" s="53"/>
+      <c r="BO10" s="53"/>
       <c r="BP10" s="40"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -4420,15 +4408,15 @@
       <c r="A12" s="2"/>
       <c r="B12" s="15"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="51" t="s">
-        <v>29</v>
+      <c r="D12" s="71" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="47"/>
-      <c r="I12" s="66" t="s">
-        <v>30</v>
+      <c r="I12" s="70" t="s">
+        <v>27</v>
       </c>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
@@ -4494,15 +4482,15 @@
       <c r="A13" s="2"/>
       <c r="B13" s="15"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="51" t="s">
-        <v>31</v>
+      <c r="D13" s="71" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="47"/>
-      <c r="I13" s="66" t="s">
-        <v>32</v>
+      <c r="I13" s="70" t="s">
+        <v>29</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
@@ -4566,11 +4554,11 @@
     </row>
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="67" t="s">
-        <v>33</v>
+      <c r="B14" s="69" t="s">
+        <v>30</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -4673,18 +4661,18 @@
       <c r="AB15" s="46"/>
       <c r="AC15" s="46"/>
       <c r="AD15" s="47"/>
-      <c r="AE15" s="65" t="s">
-        <v>21</v>
+      <c r="AE15" s="51" t="s">
+        <v>18</v>
       </c>
       <c r="AF15" s="46"/>
       <c r="AG15" s="47"/>
       <c r="AH15" s="25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AI15" s="25"/>
       <c r="AJ15" s="25"/>
       <c r="AK15" s="48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL15" s="46"/>
       <c r="AM15" s="46"/>
@@ -4721,7 +4709,7 @@
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
@@ -4735,27 +4723,27 @@
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
       <c r="P16" s="47"/>
-      <c r="Q16" s="63"/>
+      <c r="Q16" s="60"/>
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
       <c r="U16" s="46"/>
       <c r="V16" s="46"/>
       <c r="W16" s="47"/>
-      <c r="X16" s="63"/>
+      <c r="X16" s="60"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="46"/>
       <c r="AA16" s="46"/>
       <c r="AB16" s="46"/>
       <c r="AC16" s="46"/>
       <c r="AD16" s="47"/>
-      <c r="AE16" s="51"/>
+      <c r="AE16" s="71"/>
       <c r="AF16" s="46"/>
       <c r="AG16" s="47"/>
-      <c r="AH16" s="63"/>
+      <c r="AH16" s="60"/>
       <c r="AI16" s="46"/>
       <c r="AJ16" s="47"/>
-      <c r="AK16" s="63"/>
+      <c r="AK16" s="60"/>
       <c r="AL16" s="46"/>
       <c r="AM16" s="46"/>
       <c r="AN16" s="46"/>
@@ -4790,11 +4778,11 @@
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="67" t="s">
-        <v>36</v>
+      <c r="B17" s="69" t="s">
+        <v>33</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -4897,18 +4885,18 @@
       <c r="AB18" s="46"/>
       <c r="AC18" s="46"/>
       <c r="AD18" s="47"/>
-      <c r="AE18" s="65" t="s">
-        <v>21</v>
+      <c r="AE18" s="51" t="s">
+        <v>18</v>
       </c>
       <c r="AF18" s="46"/>
       <c r="AG18" s="47"/>
       <c r="AH18" s="25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AI18" s="25"/>
       <c r="AJ18" s="25"/>
       <c r="AK18" s="48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL18" s="46"/>
       <c r="AM18" s="46"/>
@@ -4945,8 +4933,8 @@
     <row r="19" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="51" t="s">
-        <v>77</v>
+      <c r="C19" s="71" t="s">
+        <v>74</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -4961,15 +4949,15 @@
       <c r="N19" s="46"/>
       <c r="O19" s="46"/>
       <c r="P19" s="47"/>
-      <c r="Q19" s="63"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="46"/>
       <c r="S19" s="46"/>
       <c r="T19" s="46"/>
       <c r="U19" s="46"/>
       <c r="V19" s="46"/>
       <c r="W19" s="47"/>
-      <c r="X19" s="63" t="s">
-        <v>82</v>
+      <c r="X19" s="60" t="s">
+        <v>79</v>
       </c>
       <c r="Y19" s="46"/>
       <c r="Z19" s="46"/>
@@ -4977,16 +4965,16 @@
       <c r="AB19" s="46"/>
       <c r="AC19" s="46"/>
       <c r="AD19" s="47"/>
-      <c r="AE19" s="51">
+      <c r="AE19" s="71">
         <v>1</v>
       </c>
       <c r="AF19" s="46"/>
       <c r="AG19" s="47"/>
-      <c r="AH19" s="63"/>
+      <c r="AH19" s="60"/>
       <c r="AI19" s="46"/>
       <c r="AJ19" s="47"/>
-      <c r="AK19" s="64" t="s">
-        <v>78</v>
+      <c r="AK19" s="72" t="s">
+        <v>75</v>
       </c>
       <c r="AL19" s="46"/>
       <c r="AM19" s="46"/>
@@ -5024,7 +5012,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -5039,15 +5027,15 @@
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
       <c r="P20" s="30"/>
-      <c r="Q20" s="62"/>
+      <c r="Q20" s="73"/>
       <c r="R20" s="46"/>
       <c r="S20" s="46"/>
       <c r="T20" s="46"/>
       <c r="U20" s="46"/>
       <c r="V20" s="46"/>
       <c r="W20" s="47"/>
-      <c r="X20" s="63" t="s">
-        <v>45</v>
+      <c r="X20" s="60" t="s">
+        <v>42</v>
       </c>
       <c r="Y20" s="46"/>
       <c r="Z20" s="46"/>
@@ -5055,14 +5043,14 @@
       <c r="AB20" s="46"/>
       <c r="AC20" s="46"/>
       <c r="AD20" s="47"/>
-      <c r="AE20" s="51"/>
+      <c r="AE20" s="71"/>
       <c r="AF20" s="46"/>
       <c r="AG20" s="47"/>
-      <c r="AH20" s="63"/>
+      <c r="AH20" s="60"/>
       <c r="AI20" s="46"/>
       <c r="AJ20" s="47"/>
-      <c r="AK20" s="63" t="s">
-        <v>81</v>
+      <c r="AK20" s="60" t="s">
+        <v>78</v>
       </c>
       <c r="AL20" s="46"/>
       <c r="AM20" s="46"/>
@@ -5100,42 +5088,42 @@
       <c r="A21" s="2"/>
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
-      <c r="D21" s="51" t="s">
-        <v>80</v>
+      <c r="D21" s="71" t="s">
+        <v>77</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="62"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="73"/>
       <c r="R21" s="46"/>
       <c r="S21" s="46"/>
       <c r="T21" s="46"/>
       <c r="U21" s="46"/>
       <c r="V21" s="46"/>
       <c r="W21" s="47"/>
-      <c r="X21" s="63"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="46"/>
       <c r="Z21" s="46"/>
       <c r="AA21" s="46"/>
       <c r="AB21" s="46"/>
       <c r="AC21" s="46"/>
       <c r="AD21" s="47"/>
-      <c r="AE21" s="51"/>
+      <c r="AE21" s="71"/>
       <c r="AF21" s="46"/>
       <c r="AG21" s="47"/>
-      <c r="AH21" s="63"/>
+      <c r="AH21" s="60"/>
       <c r="AI21" s="46"/>
       <c r="AJ21" s="47"/>
-      <c r="AK21" s="63"/>
+      <c r="AK21" s="60"/>
       <c r="AL21" s="46"/>
       <c r="AM21" s="46"/>
       <c r="AN21" s="46"/>
@@ -5239,8 +5227,9 @@
       <c r="BP22" s="2"/>
     </row>
     <row r="23" spans="1:68" ht="16.5">
-      <c r="A23" s="9" t="s">
-        <v>9</v>
+      <c r="A23" s="9" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"2.処理詳細"</f>
+        <v>2.1.2.処理詳細</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5382,52 +5371,52 @@
     </row>
     <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="56" t="s">
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="56" t="s">
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="61" t="s">
         <v>12</v>
-      </c>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="76" t="s">
-        <v>13</v>
       </c>
       <c r="AM25" s="46"/>
       <c r="AN25" s="46"/>
@@ -5462,44 +5451,44 @@
     </row>
     <row r="26" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="77" t="s">
-        <v>14</v>
+      <c r="B26" s="68"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="67"/>
+      <c r="AJ26" s="67"/>
+      <c r="AK26" s="68"/>
+      <c r="AL26" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="AM26" s="46"/>
       <c r="AN26" s="46"/>
@@ -5509,15 +5498,15 @@
       <c r="AR26" s="46"/>
       <c r="AS26" s="46"/>
       <c r="AT26" s="47"/>
-      <c r="AU26" s="77" t="s">
-        <v>15</v>
+      <c r="AU26" s="62" t="s">
+        <v>14</v>
       </c>
       <c r="AV26" s="46"/>
       <c r="AW26" s="46"/>
       <c r="AX26" s="46"/>
       <c r="AY26" s="47"/>
-      <c r="AZ26" s="77" t="s">
-        <v>16</v>
+      <c r="AZ26" s="62" t="s">
+        <v>15</v>
       </c>
       <c r="BA26" s="46"/>
       <c r="BB26" s="46"/>
@@ -5542,75 +5531,75 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C27" s="61" t="s">
-        <v>83</v>
+      <c r="C27" s="77" t="s">
+        <v>80</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="51" t="s">
-        <v>84</v>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="71" t="s">
+        <v>81</v>
       </c>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="53"/>
-      <c r="AL27" s="70"/>
-      <c r="AM27" s="71"/>
-      <c r="AN27" s="71"/>
-      <c r="AO27" s="71"/>
-      <c r="AP27" s="71"/>
-      <c r="AQ27" s="71"/>
-      <c r="AR27" s="71"/>
-      <c r="AS27" s="71"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="70"/>
-      <c r="AV27" s="71"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="73"/>
-      <c r="BA27" s="74"/>
-      <c r="BB27" s="74"/>
-      <c r="BC27" s="74"/>
-      <c r="BD27" s="74"/>
-      <c r="BE27" s="74"/>
-      <c r="BF27" s="74"/>
-      <c r="BG27" s="74"/>
-      <c r="BH27" s="74"/>
-      <c r="BI27" s="74"/>
-      <c r="BJ27" s="74"/>
-      <c r="BK27" s="74"/>
-      <c r="BL27" s="74"/>
-      <c r="BM27" s="74"/>
-      <c r="BN27" s="74"/>
-      <c r="BO27" s="75"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="74"/>
+      <c r="AG27" s="74"/>
+      <c r="AH27" s="74"/>
+      <c r="AI27" s="74"/>
+      <c r="AJ27" s="74"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="54"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="55"/>
+      <c r="AO27" s="55"/>
+      <c r="AP27" s="55"/>
+      <c r="AQ27" s="55"/>
+      <c r="AR27" s="55"/>
+      <c r="AS27" s="55"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="54"/>
+      <c r="AV27" s="55"/>
+      <c r="AW27" s="55"/>
+      <c r="AX27" s="55"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="58"/>
+      <c r="BB27" s="58"/>
+      <c r="BC27" s="58"/>
+      <c r="BD27" s="58"/>
+      <c r="BE27" s="58"/>
+      <c r="BF27" s="58"/>
+      <c r="BG27" s="58"/>
+      <c r="BH27" s="58"/>
+      <c r="BI27" s="58"/>
+      <c r="BJ27" s="58"/>
+      <c r="BK27" s="58"/>
+      <c r="BL27" s="58"/>
+      <c r="BM27" s="58"/>
+      <c r="BN27" s="58"/>
+      <c r="BO27" s="59"/>
       <c r="BP27" s="8"/>
     </row>
     <row r="28" spans="1:68" ht="16.5">
@@ -5684,8 +5673,9 @@
       <c r="BP28" s="2"/>
     </row>
     <row r="29" spans="1:68" ht="16.5">
-      <c r="A29" s="9" t="s">
-        <v>17</v>
+      <c r="A29" s="9" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"3.DB処理"</f>
+        <v>2.1.3.DB処理</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5896,8 +5886,9 @@
       <c r="BP31" s="2"/>
     </row>
     <row r="32" spans="1:68" ht="16.5">
-      <c r="A32" s="9" t="s">
-        <v>19</v>
+      <c r="A32" s="9" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
+        <v>2.1.4.備考</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6599,6 +6590,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:K26"/>
+    <mergeCell ref="L25:AB26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:AB27"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="C19:P19"/>
+    <mergeCell ref="AK16:BO16"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BO10"/>
     <mergeCell ref="AL27:AT27"/>
@@ -6615,51 +6651,6 @@
     <mergeCell ref="C18:P18"/>
     <mergeCell ref="I13:BO13"/>
     <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="AK16:BO16"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="C16:P16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="C19:P19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:K26"/>
-    <mergeCell ref="L25:AB26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:AB27"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -6723,16 +6714,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
@@ -6742,16 +6733,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -6761,16 +6752,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
@@ -6780,14 +6771,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -6797,14 +6788,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -6814,10 +6805,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="35"/>
@@ -6830,7 +6821,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="35"/>
       <c r="B7" s="33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="35"/>
@@ -6843,7 +6834,7 @@
     <row r="8" spans="1:9">
       <c r="A8" s="35"/>
       <c r="B8" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="35"/>
@@ -6856,7 +6847,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="35"/>
       <c r="B9" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="35"/>
@@ -6869,7 +6860,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="35"/>
       <c r="B10" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="35"/>
@@ -6882,7 +6873,7 @@
     <row r="11" spans="1:9">
       <c r="A11" s="35"/>
       <c r="B11" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="35"/>
@@ -6895,7 +6886,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="35"/>
       <c r="B12" s="35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="35"/>
@@ -6908,7 +6899,7 @@
     <row r="13" spans="1:9">
       <c r="A13" s="35"/>
       <c r="B13" s="35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="35"/>
@@ -6921,7 +6912,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="35"/>
       <c r="B14" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -6934,7 +6925,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="35"/>
       <c r="B15" s="33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -6947,7 +6938,7 @@
     <row r="16" spans="1:9">
       <c r="A16" s="35"/>
       <c r="B16" s="33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -6960,7 +6951,7 @@
     <row r="17" spans="1:9">
       <c r="A17" s="35"/>
       <c r="B17" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
@@ -6973,7 +6964,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="35"/>
       <c r="B18" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -6986,7 +6977,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="35"/>
       <c r="B19" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -6999,7 +6990,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="35"/>
       <c r="B20" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -7012,7 +7003,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="35"/>
       <c r="B21" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -7025,7 +7016,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="35"/>
       <c r="B22" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -7038,7 +7029,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="35"/>
       <c r="B23" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>

--- a/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D027A7B-C232-4B55-92CC-06342F8BAFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A861FCAD-E1C3-43CD-87A6-F9D60228D24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1815" windowWidth="20205" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="690" windowWidth="20580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>更新日時</t>
   </si>
@@ -303,6 +303,10 @@
   </si>
   <si>
     <t>2.1.1.API仕様 参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機能一覧シート最新化</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -679,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -777,6 +781,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -789,6 +797,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -859,10 +870,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1085,8 +1092,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1157,681 +1165,748 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="37"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="37">
+      <c r="B4" s="39">
         <v>44359</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="37"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="35"/>
+      <c r="B5" s="41">
+        <v>45088</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="35">
+        <f>IF(B5="","",F4+0.01)</f>
+        <v>1.01</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="37"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="35" t="str">
+        <f t="shared" ref="F6:F25" si="0">IF(B6="","",F5+0.01)</f>
+        <v/>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="37"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="37"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="37"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="37"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="37"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="2"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="37"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="2"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="37"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="37"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="2"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="37"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="37"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="37"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="37"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="2"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="37"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="2"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="37"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="2"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="37"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="2"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="37"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="2"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="37"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="2"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="37"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="2"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="37"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="2"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="37"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27">
@@ -1977,14 +2052,12 @@
   </sheetPr>
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="49" width="3.7109375" style="66" customWidth="1"/>
-    <col min="50" max="16384" width="14.42578125" style="66"/>
+    <col min="1" max="49" width="3.7109375" style="33" customWidth="1"/>
+    <col min="50" max="16384" width="14.42578125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" customHeight="1">
@@ -2094,7 +2167,7 @@
     </row>
     <row r="3" spans="1:49" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="34" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="2"/>
@@ -4032,297 +4105,297 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="39" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="34"/>
-      <c r="AQ7" s="34"/>
-      <c r="AR7" s="34"/>
-      <c r="AS7" s="34"/>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="34"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="34"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
-      <c r="BB7" s="34"/>
-      <c r="BC7" s="34"/>
-      <c r="BD7" s="34"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="34"/>
-      <c r="BL7" s="34"/>
-      <c r="BM7" s="34"/>
-      <c r="BN7" s="34"/>
-      <c r="BO7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="36"/>
+      <c r="BM7" s="36"/>
+      <c r="BN7" s="36"/>
+      <c r="BO7" s="37"/>
       <c r="BP7" s="2"/>
     </row>
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="39" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34"/>
-      <c r="BB8" s="34"/>
-      <c r="BC8" s="34"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="34"/>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="34"/>
-      <c r="BH8" s="34"/>
-      <c r="BI8" s="34"/>
-      <c r="BJ8" s="34"/>
-      <c r="BK8" s="34"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="34"/>
-      <c r="BN8" s="34"/>
-      <c r="BO8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="36"/>
+      <c r="AY8" s="36"/>
+      <c r="AZ8" s="36"/>
+      <c r="BA8" s="36"/>
+      <c r="BB8" s="36"/>
+      <c r="BC8" s="36"/>
+      <c r="BD8" s="36"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="36"/>
+      <c r="BH8" s="36"/>
+      <c r="BI8" s="36"/>
+      <c r="BJ8" s="36"/>
+      <c r="BK8" s="36"/>
+      <c r="BL8" s="36"/>
+      <c r="BM8" s="36"/>
+      <c r="BN8" s="36"/>
+      <c r="BO8" s="37"/>
       <c r="BP8" s="2"/>
     </row>
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="39" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
-      <c r="BB9" s="34"/>
-      <c r="BC9" s="34"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34"/>
-      <c r="BK9" s="34"/>
-      <c r="BL9" s="34"/>
-      <c r="BM9" s="34"/>
-      <c r="BN9" s="34"/>
-      <c r="BO9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36"/>
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36"/>
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36"/>
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="36"/>
+      <c r="BM9" s="36"/>
+      <c r="BN9" s="36"/>
+      <c r="BO9" s="37"/>
       <c r="BP9" s="2"/>
     </row>
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="57"/>
-      <c r="AY10" s="57"/>
-      <c r="AZ10" s="57"/>
-      <c r="BA10" s="57"/>
-      <c r="BB10" s="57"/>
-      <c r="BC10" s="57"/>
-      <c r="BD10" s="57"/>
-      <c r="BE10" s="57"/>
-      <c r="BF10" s="57"/>
-      <c r="BG10" s="57"/>
-      <c r="BH10" s="57"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="57"/>
-      <c r="BK10" s="57"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
-      <c r="BN10" s="57"/>
-      <c r="BO10" s="57"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+      <c r="BB10" s="60"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="60"/>
+      <c r="BE10" s="60"/>
+      <c r="BF10" s="60"/>
+      <c r="BG10" s="60"/>
+      <c r="BH10" s="60"/>
+      <c r="BI10" s="60"/>
+      <c r="BJ10" s="60"/>
+      <c r="BK10" s="60"/>
+      <c r="BL10" s="60"/>
+      <c r="BM10" s="60"/>
+      <c r="BN10" s="60"/>
+      <c r="BO10" s="60"/>
       <c r="BP10" s="29"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4401,157 +4474,157 @@
       <c r="A12" s="2"/>
       <c r="B12" s="11"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="54" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="34"/>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
-      <c r="BB12" s="34"/>
-      <c r="BC12" s="34"/>
-      <c r="BD12" s="34"/>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="34"/>
-      <c r="BN12" s="34"/>
-      <c r="BO12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="36"/>
+      <c r="BJ12" s="36"/>
+      <c r="BK12" s="36"/>
+      <c r="BL12" s="36"/>
+      <c r="BM12" s="36"/>
+      <c r="BN12" s="36"/>
+      <c r="BO12" s="37"/>
       <c r="BP12" s="2"/>
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="11"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="54" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="34"/>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="34"/>
-      <c r="BB13" s="34"/>
-      <c r="BC13" s="34"/>
-      <c r="BD13" s="34"/>
-      <c r="BE13" s="34"/>
-      <c r="BF13" s="34"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="34"/>
-      <c r="BI13" s="34"/>
-      <c r="BJ13" s="34"/>
-      <c r="BK13" s="34"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="34"/>
-      <c r="BN13" s="34"/>
-      <c r="BO13" s="35"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="36"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="36"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
+      <c r="BI13" s="36"/>
+      <c r="BJ13" s="36"/>
+      <c r="BK13" s="36"/>
+      <c r="BL13" s="36"/>
+      <c r="BM13" s="36"/>
+      <c r="BN13" s="36"/>
+      <c r="BO13" s="37"/>
       <c r="BP13" s="2"/>
     </row>
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -4620,162 +4693,162 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="36" t="s">
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="53" t="s">
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="35"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="37"/>
       <c r="AH15" s="17" t="s">
         <v>31</v>
       </c>
       <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
-      <c r="AK15" s="36" t="s">
+      <c r="AK15" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="34"/>
-      <c r="AW15" s="34"/>
-      <c r="AX15" s="34"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="34"/>
-      <c r="BB15" s="34"/>
-      <c r="BC15" s="34"/>
-      <c r="BD15" s="34"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="34"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="34"/>
-      <c r="BN15" s="34"/>
-      <c r="BO15" s="35"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="36"/>
+      <c r="BA15" s="36"/>
+      <c r="BB15" s="36"/>
+      <c r="BC15" s="36"/>
+      <c r="BD15" s="36"/>
+      <c r="BE15" s="36"/>
+      <c r="BF15" s="36"/>
+      <c r="BG15" s="36"/>
+      <c r="BH15" s="36"/>
+      <c r="BI15" s="36"/>
+      <c r="BJ15" s="36"/>
+      <c r="BK15" s="36"/>
+      <c r="BL15" s="36"/>
+      <c r="BM15" s="36"/>
+      <c r="BN15" s="36"/>
+      <c r="BO15" s="37"/>
       <c r="BP15" s="2"/>
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="34"/>
-      <c r="BC16" s="34"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="34"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="34"/>
-      <c r="BN16" s="34"/>
-      <c r="BO16" s="35"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+      <c r="BG16" s="36"/>
+      <c r="BH16" s="36"/>
+      <c r="BI16" s="36"/>
+      <c r="BJ16" s="36"/>
+      <c r="BK16" s="36"/>
+      <c r="BL16" s="36"/>
+      <c r="BM16" s="36"/>
+      <c r="BN16" s="36"/>
+      <c r="BO16" s="37"/>
       <c r="BP16" s="2"/>
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -4844,161 +4917,161 @@
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="36" t="s">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="36" t="s">
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="53" t="s">
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="35"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="37"/>
       <c r="AH18" s="17" t="s">
         <v>31</v>
       </c>
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
-      <c r="AK18" s="36" t="s">
+      <c r="AK18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="34"/>
-      <c r="BC18" s="34"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="34"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="35"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="36"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="36"/>
+      <c r="BK18" s="36"/>
+      <c r="BL18" s="36"/>
+      <c r="BM18" s="36"/>
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="37"/>
       <c r="BP18" s="2"/>
     </row>
     <row r="19" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="51" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="39">
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="42">
         <v>1</v>
       </c>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="52" t="s">
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="34"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="34"/>
-      <c r="BC19" s="34"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="35"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36"/>
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="36"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="36"/>
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="36"/>
+      <c r="BK19" s="36"/>
+      <c r="BL19" s="36"/>
+      <c r="BM19" s="36"/>
+      <c r="BN19" s="36"/>
+      <c r="BO19" s="37"/>
       <c r="BP19" s="2"/>
     </row>
     <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5020,133 +5093,133 @@
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="51" t="s">
+      <c r="Q20" s="53"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="51" t="s">
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="34"/>
-      <c r="AW20" s="34"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="34"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="34"/>
-      <c r="BC20" s="34"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="34"/>
-      <c r="BL20" s="34"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="34"/>
-      <c r="BO20" s="35"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="36"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="37"/>
       <c r="BP20" s="2"/>
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="34"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="34"/>
-      <c r="BC21" s="34"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="34"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="35"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="37"/>
       <c r="BP21" s="2"/>
     </row>
     <row r="22" spans="1:68" ht="16.5">
@@ -5364,158 +5437,158 @@
     </row>
     <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="44" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="44" t="s">
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="46"/>
-      <c r="AL25" s="64" t="s">
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="34"/>
-      <c r="AW25" s="34"/>
-      <c r="AX25" s="34"/>
-      <c r="AY25" s="34"/>
-      <c r="AZ25" s="34"/>
-      <c r="BA25" s="34"/>
-      <c r="BB25" s="34"/>
-      <c r="BC25" s="34"/>
-      <c r="BD25" s="34"/>
-      <c r="BE25" s="34"/>
-      <c r="BF25" s="34"/>
-      <c r="BG25" s="34"/>
-      <c r="BH25" s="34"/>
-      <c r="BI25" s="34"/>
-      <c r="BJ25" s="34"/>
-      <c r="BK25" s="34"/>
-      <c r="BL25" s="34"/>
-      <c r="BM25" s="34"/>
-      <c r="BN25" s="34"/>
-      <c r="BO25" s="35"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="36"/>
+      <c r="AU25" s="36"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="36"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="36"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="36"/>
+      <c r="BC25" s="36"/>
+      <c r="BD25" s="36"/>
+      <c r="BE25" s="36"/>
+      <c r="BF25" s="36"/>
+      <c r="BG25" s="36"/>
+      <c r="BH25" s="36"/>
+      <c r="BI25" s="36"/>
+      <c r="BJ25" s="36"/>
+      <c r="BK25" s="36"/>
+      <c r="BL25" s="36"/>
+      <c r="BM25" s="36"/>
+      <c r="BN25" s="36"/>
+      <c r="BO25" s="37"/>
       <c r="BP25" s="2"/>
     </row>
     <row r="26" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="65" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="34"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="65" t="s">
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="36"/>
+      <c r="AS26" s="36"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AV26" s="34"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="34"/>
-      <c r="AY26" s="35"/>
-      <c r="AZ26" s="65" t="s">
+      <c r="AV26" s="36"/>
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="36"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="BA26" s="34"/>
-      <c r="BB26" s="34"/>
-      <c r="BC26" s="34"/>
-      <c r="BD26" s="34"/>
-      <c r="BE26" s="34"/>
-      <c r="BF26" s="34"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="34"/>
-      <c r="BI26" s="34"/>
-      <c r="BJ26" s="34"/>
-      <c r="BK26" s="34"/>
-      <c r="BL26" s="34"/>
-      <c r="BM26" s="34"/>
-      <c r="BN26" s="34"/>
-      <c r="BO26" s="35"/>
+      <c r="BA26" s="36"/>
+      <c r="BB26" s="36"/>
+      <c r="BC26" s="36"/>
+      <c r="BD26" s="36"/>
+      <c r="BE26" s="36"/>
+      <c r="BF26" s="36"/>
+      <c r="BG26" s="36"/>
+      <c r="BH26" s="36"/>
+      <c r="BI26" s="36"/>
+      <c r="BJ26" s="36"/>
+      <c r="BK26" s="36"/>
+      <c r="BL26" s="36"/>
+      <c r="BM26" s="36"/>
+      <c r="BN26" s="36"/>
+      <c r="BO26" s="37"/>
       <c r="BP26" s="2"/>
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5524,75 +5597,75 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="39" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="58"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="60"/>
-      <c r="AU27" s="58"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="59"/>
-      <c r="AX27" s="59"/>
-      <c r="AY27" s="60"/>
-      <c r="AZ27" s="61"/>
-      <c r="BA27" s="62"/>
-      <c r="BB27" s="62"/>
-      <c r="BC27" s="62"/>
-      <c r="BD27" s="62"/>
-      <c r="BE27" s="62"/>
-      <c r="BF27" s="62"/>
-      <c r="BG27" s="62"/>
-      <c r="BH27" s="62"/>
-      <c r="BI27" s="62"/>
-      <c r="BJ27" s="62"/>
-      <c r="BK27" s="62"/>
-      <c r="BL27" s="62"/>
-      <c r="BM27" s="62"/>
-      <c r="BN27" s="62"/>
-      <c r="BO27" s="63"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="61"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="62"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="65"/>
+      <c r="BB27" s="65"/>
+      <c r="BC27" s="65"/>
+      <c r="BD27" s="65"/>
+      <c r="BE27" s="65"/>
+      <c r="BF27" s="65"/>
+      <c r="BG27" s="65"/>
+      <c r="BH27" s="65"/>
+      <c r="BI27" s="65"/>
+      <c r="BJ27" s="65"/>
+      <c r="BK27" s="65"/>
+      <c r="BL27" s="65"/>
+      <c r="BM27" s="65"/>
+      <c r="BN27" s="65"/>
+      <c r="BO27" s="66"/>
       <c r="BP27" s="2"/>
     </row>
     <row r="28" spans="1:68" ht="16.5">

--- a/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A861FCAD-E1C3-43CD-87A6-F9D60228D24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800A09B8-381A-4376-9F34-28AD2494A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="690" windowWidth="20580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -802,45 +802,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -865,11 +827,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,7 +1092,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1969,6 +1969,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1978,66 +2038,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3665,9 +3665,7 @@
   </sheetPr>
   <dimension ref="A1:BP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4105,7 +4103,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="42" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="36"/>
@@ -4113,7 +4111,7 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="62" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="36"/>
@@ -4179,7 +4177,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="42" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="36"/>
@@ -4187,7 +4185,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="36"/>
@@ -4253,7 +4251,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="36"/>
@@ -4261,7 +4259,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="62" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="36"/>
@@ -4327,75 +4325,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="60"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="60"/>
-      <c r="BA10" s="60"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="60"/>
-      <c r="BG10" s="60"/>
-      <c r="BH10" s="60"/>
-      <c r="BI10" s="60"/>
-      <c r="BJ10" s="60"/>
-      <c r="BK10" s="60"/>
-      <c r="BL10" s="60"/>
-      <c r="BM10" s="60"/>
-      <c r="BN10" s="60"/>
-      <c r="BO10" s="60"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44"/>
+      <c r="BD10" s="44"/>
+      <c r="BE10" s="44"/>
+      <c r="BF10" s="44"/>
+      <c r="BG10" s="44"/>
+      <c r="BH10" s="44"/>
+      <c r="BI10" s="44"/>
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="44"/>
+      <c r="BM10" s="44"/>
+      <c r="BN10" s="44"/>
+      <c r="BO10" s="44"/>
       <c r="BP10" s="29"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4474,14 +4472,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="11"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="62" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="61" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="36"/>
@@ -4548,14 +4546,14 @@
       <c r="A13" s="2"/>
       <c r="B13" s="11"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="62" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="61" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="36"/>
@@ -4620,11 +4618,11 @@
     </row>
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -4727,7 +4725,7 @@
       <c r="AB15" s="36"/>
       <c r="AC15" s="36"/>
       <c r="AD15" s="37"/>
-      <c r="AE15" s="56" t="s">
+      <c r="AE15" s="42" t="s">
         <v>18</v>
       </c>
       <c r="AF15" s="36"/>
@@ -4775,7 +4773,7 @@
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="42"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -4789,27 +4787,27 @@
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="37"/>
-      <c r="Q16" s="54"/>
+      <c r="Q16" s="51"/>
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
       <c r="W16" s="37"/>
-      <c r="X16" s="54"/>
+      <c r="X16" s="51"/>
       <c r="Y16" s="36"/>
       <c r="Z16" s="36"/>
       <c r="AA16" s="36"/>
       <c r="AB16" s="36"/>
       <c r="AC16" s="36"/>
       <c r="AD16" s="37"/>
-      <c r="AE16" s="42"/>
+      <c r="AE16" s="62"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="37"/>
-      <c r="AH16" s="54"/>
+      <c r="AH16" s="51"/>
       <c r="AI16" s="36"/>
       <c r="AJ16" s="37"/>
-      <c r="AK16" s="54"/>
+      <c r="AK16" s="51"/>
       <c r="AL16" s="36"/>
       <c r="AM16" s="36"/>
       <c r="AN16" s="36"/>
@@ -4844,11 +4842,11 @@
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -4951,7 +4949,7 @@
       <c r="AB18" s="36"/>
       <c r="AC18" s="36"/>
       <c r="AD18" s="37"/>
-      <c r="AE18" s="56" t="s">
+      <c r="AE18" s="42" t="s">
         <v>18</v>
       </c>
       <c r="AF18" s="36"/>
@@ -4999,7 +4997,7 @@
     <row r="19" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="36"/>
@@ -5015,14 +5013,14 @@
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="37"/>
-      <c r="Q19" s="54"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="54" t="s">
+      <c r="X19" s="51" t="s">
         <v>79</v>
       </c>
       <c r="Y19" s="36"/>
@@ -5031,15 +5029,15 @@
       <c r="AB19" s="36"/>
       <c r="AC19" s="36"/>
       <c r="AD19" s="37"/>
-      <c r="AE19" s="42">
+      <c r="AE19" s="62">
         <v>1</v>
       </c>
       <c r="AF19" s="36"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="54"/>
+      <c r="AH19" s="51"/>
       <c r="AI19" s="36"/>
       <c r="AJ19" s="37"/>
-      <c r="AK19" s="55" t="s">
+      <c r="AK19" s="63" t="s">
         <v>75</v>
       </c>
       <c r="AL19" s="36"/>
@@ -5093,14 +5091,14 @@
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="53"/>
+      <c r="Q20" s="64"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
       <c r="W20" s="37"/>
-      <c r="X20" s="54" t="s">
+      <c r="X20" s="51" t="s">
         <v>42</v>
       </c>
       <c r="Y20" s="36"/>
@@ -5109,13 +5107,13 @@
       <c r="AB20" s="36"/>
       <c r="AC20" s="36"/>
       <c r="AD20" s="37"/>
-      <c r="AE20" s="42"/>
+      <c r="AE20" s="62"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="54"/>
+      <c r="AH20" s="51"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="37"/>
-      <c r="AK20" s="54" t="s">
+      <c r="AK20" s="51" t="s">
         <v>78</v>
       </c>
       <c r="AL20" s="36"/>
@@ -5154,42 +5152,42 @@
       <c r="A21" s="2"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="53"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="64"/>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
       <c r="V21" s="36"/>
       <c r="W21" s="37"/>
-      <c r="X21" s="54"/>
+      <c r="X21" s="51"/>
       <c r="Y21" s="36"/>
       <c r="Z21" s="36"/>
       <c r="AA21" s="36"/>
       <c r="AB21" s="36"/>
       <c r="AC21" s="36"/>
       <c r="AD21" s="37"/>
-      <c r="AE21" s="42"/>
+      <c r="AE21" s="62"/>
       <c r="AF21" s="36"/>
       <c r="AG21" s="37"/>
-      <c r="AH21" s="54"/>
+      <c r="AH21" s="51"/>
       <c r="AI21" s="36"/>
       <c r="AJ21" s="37"/>
-      <c r="AK21" s="54"/>
+      <c r="AK21" s="51"/>
       <c r="AL21" s="36"/>
       <c r="AM21" s="36"/>
       <c r="AN21" s="36"/>
@@ -5437,51 +5435,51 @@
     </row>
     <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="47" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="47" t="s">
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="67" t="s">
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="52" t="s">
         <v>12</v>
       </c>
       <c r="AM25" s="36"/>
@@ -5517,43 +5515,43 @@
     </row>
     <row r="26" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="68" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="53" t="s">
         <v>13</v>
       </c>
       <c r="AM26" s="36"/>
@@ -5564,14 +5562,14 @@
       <c r="AR26" s="36"/>
       <c r="AS26" s="36"/>
       <c r="AT26" s="37"/>
-      <c r="AU26" s="68" t="s">
+      <c r="AU26" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AV26" s="36"/>
       <c r="AW26" s="36"/>
       <c r="AX26" s="36"/>
       <c r="AY26" s="37"/>
-      <c r="AZ26" s="68" t="s">
+      <c r="AZ26" s="53" t="s">
         <v>15</v>
       </c>
       <c r="BA26" s="36"/>
@@ -5597,75 +5595,75 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="42" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="43"/>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="61"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="64"/>
-      <c r="BA27" s="65"/>
-      <c r="BB27" s="65"/>
-      <c r="BC27" s="65"/>
-      <c r="BD27" s="65"/>
-      <c r="BE27" s="65"/>
-      <c r="BF27" s="65"/>
-      <c r="BG27" s="65"/>
-      <c r="BH27" s="65"/>
-      <c r="BI27" s="65"/>
-      <c r="BJ27" s="65"/>
-      <c r="BK27" s="65"/>
-      <c r="BL27" s="65"/>
-      <c r="BM27" s="65"/>
-      <c r="BN27" s="65"/>
-      <c r="BO27" s="66"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="46"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="46"/>
+      <c r="AY27" s="47"/>
+      <c r="AZ27" s="48"/>
+      <c r="BA27" s="49"/>
+      <c r="BB27" s="49"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="49"/>
+      <c r="BJ27" s="49"/>
+      <c r="BK27" s="49"/>
+      <c r="BL27" s="49"/>
+      <c r="BM27" s="49"/>
+      <c r="BN27" s="49"/>
+      <c r="BO27" s="50"/>
       <c r="BP27" s="2"/>
     </row>
     <row r="28" spans="1:68" ht="16.5">
@@ -6656,6 +6654,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:K26"/>
+    <mergeCell ref="L25:AB26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:AB27"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="C19:P19"/>
+    <mergeCell ref="AK16:BO16"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BO10"/>
     <mergeCell ref="AL27:AT27"/>
@@ -6672,51 +6715,6 @@
     <mergeCell ref="C18:P18"/>
     <mergeCell ref="I13:BO13"/>
     <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="C16:P16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="C19:P19"/>
-    <mergeCell ref="AK16:BO16"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:K26"/>
-    <mergeCell ref="L25:AB26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:AB27"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800A09B8-381A-4376-9F34-28AD2494A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FEEF1D-621D-44EE-9104-D0C42EDB2C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="240" windowWidth="21075" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックAPI'!$A$1:$BP$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックAPI'!$A$1:$BP$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>更新日時</t>
   </si>
@@ -107,18 +107,6 @@
   </si>
   <si>
     <t>リクエストヘッダ</t>
-  </si>
-  <si>
-    <t>Content-Type</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>Accept-Charset</t>
-  </si>
-  <si>
-    <t>utf-8</t>
   </si>
   <si>
     <t>request</t>
@@ -294,10 +282,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>◯：必須</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>レスポンスを返す</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -307,6 +291,42 @@
   </si>
   <si>
     <t>機能一覧シート最新化</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>全角文字</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>真偽値</t>
+    <rPh sb="0" eb="2">
+      <t>シンギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>実装に合わせ最新化</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -802,7 +822,42 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -827,50 +882,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1092,8 +1110,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L35" sqref="L35"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1249,7 +1268,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
       <c r="J5" s="35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
@@ -1271,18 +1290,22 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="35"/>
+      <c r="B6" s="41">
+        <v>45880</v>
+      </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="35" t="str">
+      <c r="F6" s="35">
         <f t="shared" ref="F6:F25" si="0">IF(B6="","",F5+0.01)</f>
-        <v/>
+        <v>1.02</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -1969,12 +1992,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1984,60 +2055,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2168,7 +2191,7 @@
     <row r="3" spans="1:49" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2222,7 +2245,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3663,9 +3686,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4103,7 +4126,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="36"/>
@@ -4111,8 +4134,8 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="62" t="s">
-        <v>71</v>
+      <c r="I7" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -4177,7 +4200,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="36"/>
@@ -4185,7 +4208,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="42" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="36"/>
@@ -4251,7 +4274,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="55" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="36"/>
@@ -4259,7 +4282,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="42" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="36"/>
@@ -4325,75 +4348,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
-      <c r="C10" s="42" t="s">
-        <v>72</v>
+      <c r="C10" s="55" t="s">
+        <v>68</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44" t="s">
-        <v>73</v>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59" t="s">
+        <v>69</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
-      <c r="BM10" s="44"/>
-      <c r="BN10" s="44"/>
-      <c r="BO10" s="44"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="59"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
+      <c r="BJ10" s="59"/>
+      <c r="BK10" s="59"/>
+      <c r="BL10" s="59"/>
+      <c r="BM10" s="59"/>
+      <c r="BN10" s="59"/>
+      <c r="BO10" s="59"/>
       <c r="BP10" s="29"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4472,16 +4495,12 @@
       <c r="A12" s="2"/>
       <c r="B12" s="11"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="62" t="s">
-        <v>26</v>
-      </c>
+      <c r="D12" s="42"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="61" t="s">
-        <v>27</v>
-      </c>
+      <c r="I12" s="56"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -4544,156 +4563,162 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="62" t="s">
+      <c r="B13" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="10"/>
+      <c r="BP13" s="2"/>
+    </row>
+    <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="36"/>
-      <c r="AV13" s="36"/>
-      <c r="AW13" s="36"/>
-      <c r="AX13" s="36"/>
-      <c r="AY13" s="36"/>
-      <c r="AZ13" s="36"/>
-      <c r="BA13" s="36"/>
-      <c r="BB13" s="36"/>
-      <c r="BC13" s="36"/>
-      <c r="BD13" s="36"/>
-      <c r="BE13" s="36"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="36"/>
-      <c r="BH13" s="36"/>
-      <c r="BI13" s="36"/>
-      <c r="BJ13" s="36"/>
-      <c r="BK13" s="36"/>
-      <c r="BL13" s="36"/>
-      <c r="BM13" s="36"/>
-      <c r="BN13" s="36"/>
-      <c r="BO13" s="37"/>
-      <c r="BP13" s="2"/>
-    </row>
-    <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BG14" s="9"/>
-      <c r="BH14" s="9"/>
-      <c r="BI14" s="9"/>
-      <c r="BJ14" s="9"/>
-      <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="9"/>
-      <c r="BO14" s="10"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
+      <c r="AZ14" s="36"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14" s="36"/>
+      <c r="BF14" s="36"/>
+      <c r="BG14" s="36"/>
+      <c r="BH14" s="36"/>
+      <c r="BI14" s="36"/>
+      <c r="BJ14" s="36"/>
+      <c r="BK14" s="36"/>
+      <c r="BL14" s="36"/>
+      <c r="BM14" s="36"/>
+      <c r="BN14" s="36"/>
+      <c r="BO14" s="37"/>
       <c r="BP14" s="2"/>
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -4707,37 +4732,27 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="38" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q15" s="53"/>
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
       <c r="W15" s="37"/>
-      <c r="X15" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="X15" s="53"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
       <c r="AA15" s="36"/>
       <c r="AB15" s="36"/>
       <c r="AC15" s="36"/>
       <c r="AD15" s="37"/>
-      <c r="AE15" s="42" t="s">
-        <v>18</v>
-      </c>
+      <c r="AE15" s="42"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="37"/>
-      <c r="AH15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="38" t="s">
-        <v>32</v>
-      </c>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="53"/>
       <c r="AL15" s="36"/>
       <c r="AM15" s="36"/>
       <c r="AN15" s="36"/>
@@ -4772,151 +4787,163 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="36"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="36"/>
-      <c r="AZ16" s="36"/>
-      <c r="BA16" s="36"/>
-      <c r="BB16" s="36"/>
-      <c r="BC16" s="36"/>
-      <c r="BD16" s="36"/>
-      <c r="BE16" s="36"/>
-      <c r="BF16" s="36"/>
-      <c r="BG16" s="36"/>
-      <c r="BH16" s="36"/>
-      <c r="BI16" s="36"/>
-      <c r="BJ16" s="36"/>
-      <c r="BK16" s="36"/>
-      <c r="BL16" s="36"/>
-      <c r="BM16" s="36"/>
-      <c r="BN16" s="36"/>
-      <c r="BO16" s="37"/>
+      <c r="B16" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="10"/>
       <c r="BP16" s="2"/>
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="60" t="s">
-        <v>33</v>
+      <c r="B17" s="16"/>
+      <c r="C17" s="38" t="s">
+        <v>6</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="9"/>
-      <c r="BA17" s="9"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-      <c r="BF17" s="9"/>
-      <c r="BG17" s="9"/>
-      <c r="BH17" s="9"/>
-      <c r="BI17" s="9"/>
-      <c r="BJ17" s="9"/>
-      <c r="BK17" s="9"/>
-      <c r="BL17" s="9"/>
-      <c r="BM17" s="9"/>
-      <c r="BN17" s="9"/>
-      <c r="BO17" s="10"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="36"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="36"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="36"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="36"/>
+      <c r="BJ17" s="36"/>
+      <c r="BK17" s="36"/>
+      <c r="BL17" s="36"/>
+      <c r="BM17" s="36"/>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="37"/>
       <c r="BP17" s="2"/>
     </row>
-    <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="38" t="s">
-        <v>6</v>
+      <c r="B18" s="11"/>
+      <c r="C18" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
@@ -4931,36 +4958,34 @@
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="37"/>
-      <c r="Q18" s="38" t="s">
-        <v>7</v>
+      <c r="Q18" s="53" t="s">
+        <v>30</v>
       </c>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
       <c r="W18" s="37"/>
-      <c r="X18" s="38" t="s">
-        <v>8</v>
+      <c r="X18" s="53" t="s">
+        <v>31</v>
       </c>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
       <c r="AD18" s="37"/>
-      <c r="AE18" s="42" t="s">
-        <v>18</v>
+      <c r="AE18" s="42">
+        <v>1</v>
       </c>
       <c r="AF18" s="36"/>
       <c r="AG18" s="37"/>
-      <c r="AH18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="38" t="s">
-        <v>32</v>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="54" t="s">
+        <v>71</v>
       </c>
       <c r="AL18" s="36"/>
       <c r="AM18" s="36"/>
@@ -4994,51 +5019,49 @@
       <c r="BO18" s="37"/>
       <c r="BP18" s="2"/>
     </row>
-    <row r="19" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="62" t="s">
-        <v>74</v>
+      <c r="C19" s="18" t="s">
+        <v>72</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="51" t="s">
-        <v>79</v>
+      <c r="X19" s="53" t="s">
+        <v>38</v>
       </c>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
       <c r="AD19" s="37"/>
-      <c r="AE19" s="62">
-        <v>1</v>
-      </c>
+      <c r="AE19" s="42"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="51"/>
+      <c r="AH19" s="53"/>
       <c r="AI19" s="36"/>
       <c r="AJ19" s="37"/>
-      <c r="AK19" s="63" t="s">
-        <v>75</v>
+      <c r="AK19" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="AL19" s="36"/>
       <c r="AM19" s="36"/>
@@ -5074,48 +5097,46 @@
     </row>
     <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="18" t="s">
-        <v>76</v>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="42" t="s">
+        <v>73</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
       <c r="W20" s="37"/>
-      <c r="X20" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
       <c r="AD20" s="37"/>
-      <c r="AE20" s="62"/>
+      <c r="AE20" s="42"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="51"/>
+      <c r="AH20" s="53"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="37"/>
-      <c r="AK20" s="51" t="s">
-        <v>78</v>
-      </c>
+      <c r="AK20" s="53"/>
       <c r="AL20" s="36"/>
       <c r="AM20" s="36"/>
       <c r="AN20" s="36"/>
@@ -5148,339 +5169,339 @@
       <c r="BO20" s="37"/>
       <c r="BP20" s="2"/>
     </row>
-    <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="21" spans="1:68" ht="16.5">
       <c r="A21" s="2"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="36"/>
-      <c r="AU21" s="36"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="36"/>
-      <c r="AX21" s="36"/>
-      <c r="AY21" s="36"/>
-      <c r="AZ21" s="36"/>
-      <c r="BA21" s="36"/>
-      <c r="BB21" s="36"/>
-      <c r="BC21" s="36"/>
-      <c r="BD21" s="36"/>
-      <c r="BE21" s="36"/>
-      <c r="BF21" s="36"/>
-      <c r="BG21" s="36"/>
-      <c r="BH21" s="36"/>
-      <c r="BI21" s="36"/>
-      <c r="BJ21" s="36"/>
-      <c r="BK21" s="36"/>
-      <c r="BL21" s="36"/>
-      <c r="BM21" s="36"/>
-      <c r="BN21" s="36"/>
-      <c r="BO21" s="37"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
       <c r="BP21" s="2"/>
     </row>
     <row r="22" spans="1:68" ht="16.5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="2"/>
-      <c r="BI22" s="2"/>
-      <c r="BJ22" s="2"/>
-      <c r="BK22" s="2"/>
-      <c r="BL22" s="2"/>
-      <c r="BM22" s="2"/>
-      <c r="BN22" s="2"/>
-      <c r="BO22" s="2"/>
-      <c r="BP22" s="2"/>
-    </row>
-    <row r="23" spans="1:68" ht="16.5">
-      <c r="A23" s="6" t="str">
+      <c r="A22" s="6" t="str">
         <f ca="1">LEFT($A$1, 4)&amp;"2.処理詳細"</f>
         <v>2.1.2.処理詳細</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
-      <c r="BL23" s="4"/>
-      <c r="BM23" s="4"/>
-      <c r="BN23" s="4"/>
-      <c r="BO23" s="4"/>
-      <c r="BP23" s="4"/>
-    </row>
-    <row r="24" spans="1:68" ht="16.5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
-      <c r="BI24" s="2"/>
-      <c r="BJ24" s="2"/>
-      <c r="BK24" s="2"/>
-      <c r="BL24" s="2"/>
-      <c r="BM24" s="2"/>
-      <c r="BN24" s="2"/>
-      <c r="BO24" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
+      <c r="BP22" s="4"/>
+    </row>
+    <row r="23" spans="1:68" ht="16.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+    </row>
+    <row r="24" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="36"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="36"/>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="36"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="36"/>
+      <c r="BC24" s="36"/>
+      <c r="BD24" s="36"/>
+      <c r="BE24" s="36"/>
+      <c r="BF24" s="36"/>
+      <c r="BG24" s="36"/>
+      <c r="BH24" s="36"/>
+      <c r="BI24" s="36"/>
+      <c r="BJ24" s="36"/>
+      <c r="BK24" s="36"/>
+      <c r="BL24" s="36"/>
+      <c r="BM24" s="36"/>
+      <c r="BN24" s="36"/>
+      <c r="BO24" s="37"/>
       <c r="BP24" s="2"/>
     </row>
     <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="52" t="s">
-        <v>12</v>
+      <c r="B25" s="46"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="67" t="s">
+        <v>13</v>
       </c>
       <c r="AM25" s="36"/>
       <c r="AN25" s="36"/>
@@ -5489,13 +5510,17 @@
       <c r="AQ25" s="36"/>
       <c r="AR25" s="36"/>
       <c r="AS25" s="36"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="36"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="67" t="s">
+        <v>14</v>
+      </c>
       <c r="AV25" s="36"/>
       <c r="AW25" s="36"/>
       <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="36"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="67" t="s">
+        <v>15</v>
+      </c>
       <c r="BA25" s="36"/>
       <c r="BB25" s="36"/>
       <c r="BC25" s="36"/>
@@ -5515,299 +5540,293 @@
     </row>
     <row r="26" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="37"/>
-      <c r="AU26" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="37"/>
-      <c r="AZ26" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA26" s="36"/>
-      <c r="BB26" s="36"/>
-      <c r="BC26" s="36"/>
-      <c r="BD26" s="36"/>
-      <c r="BE26" s="36"/>
-      <c r="BF26" s="36"/>
-      <c r="BG26" s="36"/>
-      <c r="BH26" s="36"/>
-      <c r="BI26" s="36"/>
-      <c r="BJ26" s="36"/>
-      <c r="BK26" s="36"/>
-      <c r="BL26" s="36"/>
-      <c r="BM26" s="36"/>
-      <c r="BN26" s="36"/>
-      <c r="BO26" s="37"/>
-      <c r="BP26" s="2"/>
-    </row>
-    <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="27">
-        <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
+      <c r="B26" s="27">
+        <f ca="1">MAX(B$24:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C27" s="68" t="s">
-        <v>80</v>
+      <c r="C26" s="52" t="s">
+        <v>75</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="62" t="s">
-        <v>81</v>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="42" t="s">
+        <v>76</v>
       </c>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="46"/>
-      <c r="AN27" s="46"/>
-      <c r="AO27" s="46"/>
-      <c r="AP27" s="46"/>
-      <c r="AQ27" s="46"/>
-      <c r="AR27" s="46"/>
-      <c r="AS27" s="46"/>
-      <c r="AT27" s="47"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="46"/>
-      <c r="AW27" s="46"/>
-      <c r="AX27" s="46"/>
-      <c r="AY27" s="47"/>
-      <c r="AZ27" s="48"/>
-      <c r="BA27" s="49"/>
-      <c r="BB27" s="49"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="49"/>
-      <c r="BE27" s="49"/>
-      <c r="BF27" s="49"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
-      <c r="BI27" s="49"/>
-      <c r="BJ27" s="49"/>
-      <c r="BK27" s="49"/>
-      <c r="BL27" s="49"/>
-      <c r="BM27" s="49"/>
-      <c r="BN27" s="49"/>
-      <c r="BO27" s="50"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="61"/>
+      <c r="AR26" s="61"/>
+      <c r="AS26" s="61"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="60"/>
+      <c r="AV26" s="61"/>
+      <c r="AW26" s="61"/>
+      <c r="AX26" s="61"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="64"/>
+      <c r="BB26" s="64"/>
+      <c r="BC26" s="64"/>
+      <c r="BD26" s="64"/>
+      <c r="BE26" s="64"/>
+      <c r="BF26" s="64"/>
+      <c r="BG26" s="64"/>
+      <c r="BH26" s="64"/>
+      <c r="BI26" s="64"/>
+      <c r="BJ26" s="64"/>
+      <c r="BK26" s="64"/>
+      <c r="BL26" s="64"/>
+      <c r="BM26" s="64"/>
+      <c r="BN26" s="64"/>
+      <c r="BO26" s="65"/>
+      <c r="BP26" s="2"/>
+    </row>
+    <row r="27" spans="1:68" ht="16.5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
       <c r="BP27" s="2"/>
     </row>
     <row r="28" spans="1:68" ht="16.5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2"/>
-      <c r="BH28" s="2"/>
-      <c r="BI28" s="2"/>
-      <c r="BJ28" s="2"/>
-      <c r="BK28" s="2"/>
-      <c r="BL28" s="2"/>
-      <c r="BM28" s="2"/>
-      <c r="BN28" s="2"/>
-      <c r="BO28" s="2"/>
-      <c r="BP28" s="2"/>
-    </row>
-    <row r="29" spans="1:68" ht="16.5">
-      <c r="A29" s="6" t="str">
+      <c r="A28" s="6" t="str">
         <f ca="1">LEFT($A$1, 4)&amp;"3.DB処理"</f>
         <v>2.1.3.DB処理</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="4"/>
-      <c r="AY29" s="4"/>
-      <c r="AZ29" s="4"/>
-      <c r="BA29" s="4"/>
-      <c r="BB29" s="4"/>
-      <c r="BC29" s="4"/>
-      <c r="BD29" s="4"/>
-      <c r="BE29" s="4"/>
-      <c r="BF29" s="4"/>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="4"/>
-      <c r="BI29" s="4"/>
-      <c r="BJ29" s="4"/>
-      <c r="BK29" s="4"/>
-      <c r="BL29" s="4"/>
-      <c r="BM29" s="4"/>
-      <c r="BN29" s="4"/>
-      <c r="BO29" s="4"/>
-      <c r="BP29" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
+      <c r="BH28" s="4"/>
+      <c r="BI28" s="4"/>
+      <c r="BJ28" s="4"/>
+      <c r="BK28" s="4"/>
+      <c r="BL28" s="4"/>
+      <c r="BM28" s="4"/>
+      <c r="BN28" s="4"/>
+      <c r="BO28" s="4"/>
+      <c r="BP28" s="4"/>
+    </row>
+    <row r="29" spans="1:68" ht="16.5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
     </row>
     <row r="30" spans="1:68" ht="16.5">
       <c r="A30" s="2"/>
@@ -5880,147 +5899,147 @@
       <c r="BP30" s="2"/>
     </row>
     <row r="31" spans="1:68" ht="16.5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
-      <c r="BF31" s="2"/>
-      <c r="BG31" s="2"/>
-      <c r="BH31" s="2"/>
-      <c r="BI31" s="2"/>
-      <c r="BJ31" s="2"/>
-      <c r="BK31" s="2"/>
-      <c r="BL31" s="2"/>
-      <c r="BM31" s="2"/>
-      <c r="BN31" s="2"/>
-      <c r="BO31" s="2"/>
-      <c r="BP31" s="2"/>
-    </row>
-    <row r="32" spans="1:68" ht="16.5">
-      <c r="A32" s="6" t="str">
+      <c r="A31" s="6" t="str">
         <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
         <v>2.1.4.備考</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
-      <c r="BI32" s="1"/>
-      <c r="BJ32" s="1"/>
-      <c r="BK32" s="1"/>
-      <c r="BL32" s="1"/>
-      <c r="BM32" s="1"/>
-      <c r="BN32" s="1"/>
-      <c r="BO32" s="1"/>
-      <c r="BP32" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+    </row>
+    <row r="32" spans="1:68" ht="16.5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
       <c r="A33" s="2"/>
@@ -6582,143 +6601,71 @@
       <c r="BO40" s="2"/>
       <c r="BP40" s="2"/>
     </row>
-    <row r="41" spans="1:68" ht="16.5">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
-      <c r="AM41" s="2"/>
-      <c r="AN41" s="2"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
-      <c r="AY41" s="2"/>
-      <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
-      <c r="BD41" s="2"/>
-      <c r="BE41" s="2"/>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2"/>
-      <c r="BH41" s="2"/>
-      <c r="BI41" s="2"/>
-      <c r="BJ41" s="2"/>
-      <c r="BK41" s="2"/>
-      <c r="BL41" s="2"/>
-      <c r="BM41" s="2"/>
-      <c r="BN41" s="2"/>
-      <c r="BO41" s="2"/>
-      <c r="BP41" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:K26"/>
-    <mergeCell ref="L25:AB26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:AB27"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH19:AJ19"/>
+  <mergeCells count="59">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AZ26:BO26"/>
     <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="C16:P16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="C19:P19"/>
-    <mergeCell ref="AK16:BO16"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AL24:BO24"/>
+    <mergeCell ref="AL25:AT25"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="AZ25:BO25"/>
+    <mergeCell ref="AC24:AK25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="AK14:BO14"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:BO7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:BO8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="C15:P15"/>
     <mergeCell ref="Q15:W15"/>
     <mergeCell ref="X15:AD15"/>
     <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="AL27:AT27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AZ27:BO27"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="AL25:BO25"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AZ26:BO26"/>
-    <mergeCell ref="AC25:AK26"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
     <mergeCell ref="C18:P18"/>
-    <mergeCell ref="I13:BO13"/>
     <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:K25"/>
+    <mergeCell ref="L24:AB25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:AB26"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="AH16 AH19:AH21" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="AH15 AH18:AH20" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"○"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6726,9 +6673,9 @@
   <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="3" max="16383" man="1"/>
-    <brk id="22" max="16383" man="1"/>
-    <brk id="28" max="16383" man="1"/>
-    <brk id="31" max="16383" man="1"/>
+    <brk id="21" max="16383" man="1"/>
+    <brk id="27" max="16383" man="1"/>
+    <brk id="30" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -6743,13 +6690,13 @@
           <x14:formula1>
             <xm:f>データ入力例!$B$1:$B$27</xm:f>
           </x14:formula1>
-          <xm:sqref>Q16 Q19:Q21</xm:sqref>
+          <xm:sqref>Q15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
             <xm:f>データ入力例!$C$1:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>X16 X19:X21</xm:sqref>
+          <xm:sqref>X15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6763,9 +6710,11 @@
     <tabColor rgb="FFB7B7B7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -6776,18 +6725,18 @@
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -6795,15 +6744,15 @@
       <c r="H1" s="24"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>21</v>
@@ -6814,18 +6763,18 @@
       <c r="H2" s="23"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -6833,16 +6782,16 @@
       <c r="H3" s="23"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -6850,16 +6799,16 @@
       <c r="H4" s="23"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -6867,12 +6816,12 @@
       <c r="H5" s="23"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -6882,10 +6831,10 @@
       <c r="H6" s="23"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="23"/>
       <c r="B7" s="23" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -6895,10 +6844,10 @@
       <c r="H7" s="23"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="23"/>
       <c r="B8" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -6908,10 +6857,10 @@
       <c r="H8" s="23"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="23"/>
       <c r="B9" s="23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -6921,10 +6870,10 @@
       <c r="H9" s="23"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="23"/>
       <c r="B10" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -6934,10 +6883,10 @@
       <c r="H10" s="23"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="23"/>
       <c r="B11" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -6947,10 +6896,10 @@
       <c r="H11" s="23"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="23"/>
       <c r="B12" s="23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -6960,10 +6909,10 @@
       <c r="H12" s="23"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="23"/>
       <c r="B13" s="23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -6973,10 +6922,10 @@
       <c r="H13" s="23"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="23"/>
       <c r="B14" s="23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -6986,10 +6935,10 @@
       <c r="H14" s="23"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="23"/>
       <c r="B15" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -6999,10 +6948,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="23"/>
       <c r="B16" s="23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -7012,10 +6961,10 @@
       <c r="H16" s="23"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -7025,10 +6974,10 @@
       <c r="H17" s="23"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="23"/>
       <c r="B18" s="23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -7038,10 +6987,10 @@
       <c r="H18" s="23"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="23"/>
       <c r="B19" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -7051,10 +7000,10 @@
       <c r="H19" s="23"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="23"/>
       <c r="B20" s="23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -7064,10 +7013,10 @@
       <c r="H20" s="23"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="23"/>
       <c r="B21" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -7077,10 +7026,10 @@
       <c r="H21" s="23"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="23"/>
       <c r="B22" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -7090,10 +7039,10 @@
       <c r="H22" s="23"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="23"/>
       <c r="B23" s="23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -7103,9 +7052,11 @@
       <c r="H23" s="23"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -7114,9 +7065,11 @@
       <c r="H24" s="23"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -7125,7 +7078,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -7136,16 +7089,27 @@
       <c r="H26" s="23"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+    <row r="27" spans="1:9" ht="16.5">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>

--- a/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FEEF1D-621D-44EE-9104-D0C42EDB2C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9986C921-C424-440D-A932-DC4B91ECCF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="240" windowWidth="21075" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>エンドポイントURL</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>/api/root/healthinfocheck</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -327,6 +323,10 @@
     <rPh sb="8" eb="9">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エンドポイント</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -822,42 +822,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -882,13 +847,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1110,7 +1110,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L35" sqref="L35"/>
       <selection pane="bottomLeft"/>
@@ -1268,7 +1268,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
       <c r="J5" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
@@ -1304,7 +1304,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
       <c r="J6" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
@@ -1992,6 +1992,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2001,66 +2061,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3688,7 +3688,9 @@
   </sheetPr>
   <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4126,7 +4128,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="42" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="36"/>
@@ -4134,7 +4136,7 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="62" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="36"/>
@@ -4200,7 +4202,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="42" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="36"/>
@@ -4208,7 +4210,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="36"/>
@@ -4274,7 +4276,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="36"/>
@@ -4282,7 +4284,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="62" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="36"/>
@@ -4348,75 +4350,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="59"/>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="59"/>
-      <c r="AY10" s="59"/>
-      <c r="AZ10" s="59"/>
-      <c r="BA10" s="59"/>
-      <c r="BB10" s="59"/>
-      <c r="BC10" s="59"/>
-      <c r="BD10" s="59"/>
-      <c r="BE10" s="59"/>
-      <c r="BF10" s="59"/>
-      <c r="BG10" s="59"/>
-      <c r="BH10" s="59"/>
-      <c r="BI10" s="59"/>
-      <c r="BJ10" s="59"/>
-      <c r="BK10" s="59"/>
-      <c r="BL10" s="59"/>
-      <c r="BM10" s="59"/>
-      <c r="BN10" s="59"/>
-      <c r="BO10" s="59"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44"/>
+      <c r="BD10" s="44"/>
+      <c r="BE10" s="44"/>
+      <c r="BF10" s="44"/>
+      <c r="BG10" s="44"/>
+      <c r="BH10" s="44"/>
+      <c r="BI10" s="44"/>
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="44"/>
+      <c r="BM10" s="44"/>
+      <c r="BN10" s="44"/>
+      <c r="BO10" s="44"/>
       <c r="BP10" s="29"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4495,12 +4497,12 @@
       <c r="A12" s="2"/>
       <c r="B12" s="11"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="42"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="56"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -4563,11 +4565,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -4670,7 +4672,7 @@
       <c r="AB14" s="36"/>
       <c r="AC14" s="36"/>
       <c r="AD14" s="37"/>
-      <c r="AE14" s="55" t="s">
+      <c r="AE14" s="42" t="s">
         <v>18</v>
       </c>
       <c r="AF14" s="36"/>
@@ -4718,7 +4720,7 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="42"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -4732,27 +4734,27 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="53"/>
+      <c r="Q15" s="51"/>
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
       <c r="W15" s="37"/>
-      <c r="X15" s="53"/>
+      <c r="X15" s="51"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
       <c r="AA15" s="36"/>
       <c r="AB15" s="36"/>
       <c r="AC15" s="36"/>
       <c r="AD15" s="37"/>
-      <c r="AE15" s="42"/>
+      <c r="AE15" s="62"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="37"/>
-      <c r="AH15" s="53"/>
+      <c r="AH15" s="51"/>
       <c r="AI15" s="36"/>
       <c r="AJ15" s="37"/>
-      <c r="AK15" s="53"/>
+      <c r="AK15" s="51"/>
       <c r="AL15" s="36"/>
       <c r="AM15" s="36"/>
       <c r="AN15" s="36"/>
@@ -4787,11 +4789,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -4894,7 +4896,7 @@
       <c r="AB17" s="36"/>
       <c r="AC17" s="36"/>
       <c r="AD17" s="37"/>
-      <c r="AE17" s="55" t="s">
+      <c r="AE17" s="42" t="s">
         <v>18</v>
       </c>
       <c r="AF17" s="36"/>
@@ -4942,8 +4944,8 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="42" t="s">
-        <v>70</v>
+      <c r="C18" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
@@ -4958,34 +4960,34 @@
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="37"/>
-      <c r="Q18" s="53" t="s">
+      <c r="Q18" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
       <c r="W18" s="37"/>
-      <c r="X18" s="53" t="s">
+      <c r="X18" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
       <c r="AD18" s="37"/>
-      <c r="AE18" s="42">
+      <c r="AE18" s="62">
         <v>1</v>
       </c>
       <c r="AF18" s="36"/>
       <c r="AG18" s="37"/>
-      <c r="AH18" s="53"/>
+      <c r="AH18" s="51"/>
       <c r="AI18" s="36"/>
       <c r="AJ18" s="37"/>
-      <c r="AK18" s="54" t="s">
-        <v>71</v>
+      <c r="AK18" s="63" t="s">
+        <v>70</v>
       </c>
       <c r="AL18" s="36"/>
       <c r="AM18" s="36"/>
@@ -5023,7 +5025,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="11"/>
       <c r="C19" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -5038,30 +5040,30 @@
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="53" t="s">
+      <c r="X19" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
       <c r="AD19" s="37"/>
-      <c r="AE19" s="42"/>
+      <c r="AE19" s="62"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="53"/>
+      <c r="AH19" s="51"/>
       <c r="AI19" s="36"/>
       <c r="AJ19" s="37"/>
-      <c r="AK19" s="53" t="s">
-        <v>74</v>
+      <c r="AK19" s="51" t="s">
+        <v>73</v>
       </c>
       <c r="AL19" s="36"/>
       <c r="AM19" s="36"/>
@@ -5099,44 +5101,44 @@
       <c r="A20" s="2"/>
       <c r="B20" s="31"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="42" t="s">
-        <v>73</v>
+      <c r="D20" s="62" t="s">
+        <v>72</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="53" t="s">
-        <v>78</v>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="51" t="s">
+        <v>77</v>
       </c>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
       <c r="W20" s="37"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="64"/>
       <c r="AD20" s="37"/>
-      <c r="AE20" s="42"/>
+      <c r="AE20" s="62"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="53"/>
+      <c r="AH20" s="51"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="37"/>
-      <c r="AK20" s="53"/>
+      <c r="AK20" s="51"/>
       <c r="AL20" s="36"/>
       <c r="AM20" s="36"/>
       <c r="AN20" s="36"/>
@@ -5384,51 +5386,51 @@
     </row>
     <row r="24" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="47" t="s">
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="47" t="s">
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="66" t="s">
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="56"/>
+      <c r="AL24" s="52" t="s">
         <v>12</v>
       </c>
       <c r="AM24" s="36"/>
@@ -5464,43 +5466,43 @@
     </row>
     <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="46"/>
-      <c r="AL25" s="67" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="58"/>
+      <c r="AJ25" s="58"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="53" t="s">
         <v>13</v>
       </c>
       <c r="AM25" s="36"/>
@@ -5511,14 +5513,14 @@
       <c r="AR25" s="36"/>
       <c r="AS25" s="36"/>
       <c r="AT25" s="37"/>
-      <c r="AU25" s="67" t="s">
+      <c r="AU25" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AV25" s="36"/>
       <c r="AW25" s="36"/>
       <c r="AX25" s="36"/>
       <c r="AY25" s="37"/>
-      <c r="AZ25" s="67" t="s">
+      <c r="AZ25" s="53" t="s">
         <v>15</v>
       </c>
       <c r="BA25" s="36"/>
@@ -5544,75 +5546,75 @@
         <f ca="1">MAX(B$24:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="61"/>
-      <c r="AN26" s="61"/>
-      <c r="AO26" s="61"/>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="61"/>
-      <c r="AR26" s="61"/>
-      <c r="AS26" s="61"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="60"/>
-      <c r="AV26" s="61"/>
-      <c r="AW26" s="61"/>
-      <c r="AX26" s="61"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="63"/>
-      <c r="BA26" s="64"/>
-      <c r="BB26" s="64"/>
-      <c r="BC26" s="64"/>
-      <c r="BD26" s="64"/>
-      <c r="BE26" s="64"/>
-      <c r="BF26" s="64"/>
-      <c r="BG26" s="64"/>
-      <c r="BH26" s="64"/>
-      <c r="BI26" s="64"/>
-      <c r="BJ26" s="64"/>
-      <c r="BK26" s="64"/>
-      <c r="BL26" s="64"/>
-      <c r="BM26" s="64"/>
-      <c r="BN26" s="64"/>
-      <c r="BO26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46"/>
+      <c r="AX26" s="46"/>
+      <c r="AY26" s="47"/>
+      <c r="AZ26" s="48"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="50"/>
       <c r="BP26" s="2"/>
     </row>
     <row r="27" spans="1:68" ht="16.5">
@@ -6603,6 +6605,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:K25"/>
+    <mergeCell ref="L24:AB25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:AB26"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BO10"/>
     <mergeCell ref="AL26:AT26"/>
@@ -6619,49 +6664,6 @@
     <mergeCell ref="C17:P17"/>
     <mergeCell ref="I12:BO12"/>
     <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:K25"/>
-    <mergeCell ref="L24:AB25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:AB26"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -6834,7 +6836,7 @@
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="23"/>
       <c r="B7" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -7068,7 +7070,7 @@
     <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="23"/>
       <c r="B25" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>

--- a/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.0.ヘルスチェックAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9986C921-C424-440D-A932-DC4B91ECCF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C2C9A-EB43-4312-AFF2-F2FE56A761B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18975" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>更新日時</t>
   </si>
@@ -328,6 +328,9 @@
   <si>
     <t>エンドポイント</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>○</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -875,6 +878,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3688,9 +3700,7 @@
   </sheetPr>
   <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4751,9 +4761,9 @@
       <c r="AE15" s="62"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="37"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="37"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="66"/>
       <c r="AK15" s="51"/>
       <c r="AL15" s="36"/>
       <c r="AM15" s="36"/>
@@ -4963,29 +4973,29 @@
       <c r="Q18" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
       <c r="W18" s="37"/>
       <c r="X18" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
       <c r="AD18" s="37"/>
       <c r="AE18" s="62">
         <v>1</v>
       </c>
       <c r="AF18" s="36"/>
       <c r="AG18" s="37"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="37"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="66"/>
       <c r="AK18" s="63" t="s">
         <v>70</v>
       </c>
@@ -5041,27 +5051,27 @@
       <c r="O19" s="20"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="51"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
       <c r="W19" s="37"/>
       <c r="X19" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
       <c r="AD19" s="37"/>
       <c r="AE19" s="62"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="37"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="66"/>
       <c r="AK19" s="51" t="s">
         <v>73</v>
       </c>
@@ -5104,40 +5114,42 @@
       <c r="D20" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="66"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="69"/>
       <c r="Q20" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
       <c r="W20" s="37"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="64"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
       <c r="AD20" s="37"/>
       <c r="AE20" s="62"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="37"/>
+      <c r="AH20" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="66"/>
       <c r="AK20" s="51"/>
       <c r="AL20" s="36"/>
       <c r="AM20" s="36"/>
@@ -5386,7 +5398,7 @@
     </row>
     <row r="24" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="54" t="s">
@@ -5546,45 +5558,45 @@
         <f ca="1">MAX(B$24:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="69"/>
       <c r="L26" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="66"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="69"/>
       <c r="AC26" s="62"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="66"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="68"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
+      <c r="AK26" s="69"/>
       <c r="AL26" s="45"/>
       <c r="AM26" s="46"/>
       <c r="AN26" s="46"/>
@@ -6698,7 +6710,7 @@
           <x14:formula1>
             <xm:f>データ入力例!$C$1:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>X15</xm:sqref>
+          <xm:sqref>X15 X18:X20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
